--- a/stockfish_last/warehouse_data_sample.xlsx
+++ b/stockfish_last/warehouse_data_sample.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozom\Desktop\stockfish_last\stockfish_last\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\OneDrive\Masaüstü\Stockfish_Last\stockfish_v1.0.9\stockfish_last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2218B29-AA71-465F-8629-D0A8FD52FB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{A7A5B13A-522E-4309-81B3-8AA82381C1B9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="663">
   <si>
     <t>15203102</t>
   </si>
@@ -2030,7 +2029,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2377,20 +2376,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E1A94D-3F3F-4F58-AA69-110EF12B39A2}">
-  <dimension ref="A1:D330"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>658</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2446,7 +2445,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2488,7 +2487,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2558,7 +2557,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2572,7 +2571,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2586,7 +2585,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2754,7 +2753,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2782,7 +2781,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -2796,7 +2795,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -2936,7 +2935,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3020,7 +3019,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3062,7 +3061,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -3076,7 +3075,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -3300,7 +3299,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -3370,7 +3369,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -3398,7 +3397,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -3440,7 +3439,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -3454,7 +3453,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -3496,7 +3495,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -3524,7 +3523,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -3552,7 +3551,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>166</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -3692,7 +3691,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -3720,7 +3719,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>198</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -3916,7 +3915,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>218</v>
       </c>
@@ -3944,7 +3943,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -3972,7 +3971,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>226</v>
       </c>
@@ -4000,7 +3999,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>228</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>234</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>236</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>238</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>242</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>244</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>246</v>
       </c>
@@ -4140,7 +4139,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>248</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -4168,7 +4167,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -4196,7 +4195,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -4238,7 +4237,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -4294,7 +4293,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -4378,7 +4377,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -4420,7 +4419,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -4434,7 +4433,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -4476,7 +4475,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -4490,7 +4489,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>312</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>314</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>318</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -4672,7 +4671,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>326</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>328</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>330</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -4742,7 +4741,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -4770,7 +4769,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -4798,7 +4797,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>344</v>
       </c>
@@ -4826,7 +4825,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>346</v>
       </c>
@@ -4840,7 +4839,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -4896,7 +4895,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>360</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>362</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -4966,7 +4965,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -4980,7 +4979,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>368</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -5008,7 +5007,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>374</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -5064,7 +5063,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -5078,7 +5077,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -5232,7 +5231,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -5260,7 +5259,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -5288,7 +5287,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -5330,7 +5329,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -5470,7 +5469,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -5512,7 +5511,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>444</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>446</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>448</v>
       </c>
@@ -5554,7 +5553,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>450</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>454</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>456</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>458</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>460</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>466</v>
       </c>
@@ -5680,7 +5679,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>468</v>
       </c>
@@ -5694,7 +5693,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>472</v>
       </c>
@@ -5722,7 +5721,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>474</v>
       </c>
@@ -5736,7 +5735,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>476</v>
       </c>
@@ -5750,7 +5749,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>478</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>480</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>486</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -5834,7 +5833,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>496</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>498</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>500</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -5946,7 +5945,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>506</v>
       </c>
@@ -5960,7 +5959,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>508</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>510</v>
       </c>
@@ -5988,7 +5987,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>512</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>514</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>516</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>518</v>
       </c>
@@ -6044,7 +6043,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>520</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>522</v>
       </c>
@@ -6072,7 +6071,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>524</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>526</v>
       </c>
@@ -6100,7 +6099,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>528</v>
       </c>
@@ -6114,7 +6113,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>530</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>532</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>534</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>536</v>
       </c>
@@ -6170,7 +6169,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>538</v>
       </c>
@@ -6184,7 +6183,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>540</v>
       </c>
@@ -6198,7 +6197,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>542</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>544</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>546</v>
       </c>
@@ -6240,7 +6239,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>548</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>550</v>
       </c>
@@ -6268,7 +6267,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>552</v>
       </c>
@@ -6282,7 +6281,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>554</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>556</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>558</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>560</v>
       </c>
@@ -6338,7 +6337,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>562</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>564</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>566</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -6394,7 +6393,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>570</v>
       </c>
@@ -6408,7 +6407,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>572</v>
       </c>
@@ -6422,7 +6421,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>574</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>576</v>
       </c>
@@ -6450,7 +6449,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>578</v>
       </c>
@@ -6464,7 +6463,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>580</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -6492,7 +6491,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -6520,7 +6519,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>588</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>590</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>592</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>594</v>
       </c>
@@ -6576,7 +6575,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>596</v>
       </c>
@@ -6590,7 +6589,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>598</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>600</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>604</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>606</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>608</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>610</v>
       </c>
@@ -6688,7 +6687,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>612</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -6716,7 +6715,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>618</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>620</v>
       </c>
@@ -6758,7 +6757,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>622</v>
       </c>
@@ -6772,7 +6771,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>624</v>
       </c>
@@ -6786,7 +6785,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>626</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>628</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>630</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>632</v>
       </c>
@@ -6842,7 +6841,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>634</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>636</v>
       </c>
@@ -6870,7 +6869,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>638</v>
       </c>
@@ -6884,7 +6883,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>640</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>642</v>
       </c>
@@ -6912,7 +6911,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>644</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>646</v>
       </c>
@@ -6940,7 +6939,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>648</v>
       </c>
@@ -6954,7 +6953,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>650</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>652</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>654</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>656</v>
       </c>
@@ -7007,6 +7006,20 @@
         <v>662</v>
       </c>
       <c r="D330">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>11111</v>
+      </c>
+      <c r="B331" t="s">
+        <v>657</v>
+      </c>
+      <c r="C331" t="s">
+        <v>662</v>
+      </c>
+      <c r="D331">
         <v>500</v>
       </c>
     </row>

--- a/stockfish_last/warehouse_data_sample.xlsx
+++ b/stockfish_last/warehouse_data_sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\OneDrive\Masaüstü\Stockfish_Last\stockfish_v1.0.9\stockfish_last\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozom\Desktop\stockfish_last_git\stockfish_last\stockfish_last\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3CA997-C816-4E53-9190-C479E0BBA311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="2715"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="665">
   <si>
     <t>15203102</t>
   </si>
@@ -2024,12 +2014,18 @@
   </si>
   <si>
     <t>piece</t>
+  </si>
+  <si>
+    <t>omer</t>
+  </si>
+  <si>
+    <t>omeer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2048,7 +2044,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2056,13 +2052,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2376,20 +2390,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D331"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="A331" sqref="A331"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="B334" sqref="B334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>658</v>
       </c>
@@ -2403,7 +2417,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2417,7 +2431,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2431,7 +2445,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2445,7 +2459,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2459,7 +2473,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2473,7 +2487,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2487,7 +2501,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2501,7 +2515,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2515,7 +2529,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2529,7 +2543,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2543,7 +2557,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2557,7 +2571,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2571,7 +2585,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2585,7 +2599,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2599,7 +2613,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2613,7 +2627,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2627,7 +2641,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2641,7 +2655,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2655,7 +2669,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2669,7 +2683,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2683,7 +2697,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2697,7 +2711,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2711,7 +2725,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2725,7 +2739,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2739,7 +2753,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2753,7 +2767,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2767,7 +2781,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2781,7 +2795,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -2795,7 +2809,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2809,7 +2823,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2823,7 +2837,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2837,7 +2851,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2851,7 +2865,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2865,7 +2879,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -2879,7 +2893,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -2893,7 +2907,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -2907,7 +2921,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2921,7 +2935,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -2935,7 +2949,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -2949,7 +2963,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -2963,7 +2977,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -2977,7 +2991,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2991,7 +3005,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3005,7 +3019,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3019,7 +3033,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3033,7 +3047,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3047,7 +3061,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3061,7 +3075,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -3075,7 +3089,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -3089,7 +3103,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -3103,7 +3117,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -3117,7 +3131,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -3131,7 +3145,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -3145,7 +3159,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3159,7 +3173,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3173,7 +3187,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3187,7 +3201,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -3201,7 +3215,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -3215,7 +3229,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -3229,7 +3243,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -3243,7 +3257,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -3257,7 +3271,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -3271,7 +3285,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -3285,7 +3299,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -3299,7 +3313,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -3313,7 +3327,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -3327,7 +3341,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -3341,7 +3355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -3355,7 +3369,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -3369,7 +3383,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -3383,7 +3397,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -3397,7 +3411,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -3411,7 +3425,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -3425,7 +3439,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -3439,7 +3453,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -3453,7 +3467,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -3467,7 +3481,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -3481,7 +3495,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -3495,7 +3509,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -3509,7 +3523,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -3523,7 +3537,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -3537,7 +3551,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -3551,7 +3565,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -3565,7 +3579,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>166</v>
       </c>
@@ -3579,7 +3593,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -3593,7 +3607,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -3607,7 +3621,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -3621,7 +3635,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -3635,7 +3649,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -3649,7 +3663,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -3663,7 +3677,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -3677,7 +3691,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -3691,7 +3705,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -3705,7 +3719,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -3719,7 +3733,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -3733,7 +3747,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -3747,7 +3761,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -3761,7 +3775,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -3775,7 +3789,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -3789,7 +3803,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>198</v>
       </c>
@@ -3803,7 +3817,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -3817,7 +3831,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -3831,7 +3845,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -3845,7 +3859,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -3859,7 +3873,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -3873,7 +3887,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -3887,7 +3901,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -3901,7 +3915,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -3915,7 +3929,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -3929,7 +3943,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>218</v>
       </c>
@@ -3943,7 +3957,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -3957,7 +3971,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -3971,7 +3985,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -3985,7 +3999,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>226</v>
       </c>
@@ -3999,7 +4013,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>228</v>
       </c>
@@ -4013,7 +4027,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -4027,7 +4041,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -4041,7 +4055,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>234</v>
       </c>
@@ -4055,7 +4069,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>236</v>
       </c>
@@ -4069,7 +4083,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>238</v>
       </c>
@@ -4083,7 +4097,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -4097,7 +4111,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>242</v>
       </c>
@@ -4111,7 +4125,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>244</v>
       </c>
@@ -4125,7 +4139,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>246</v>
       </c>
@@ -4139,7 +4153,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>248</v>
       </c>
@@ -4153,7 +4167,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -4167,7 +4181,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -4181,7 +4195,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -4195,7 +4209,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -4209,7 +4223,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -4223,7 +4237,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -4237,7 +4251,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -4251,7 +4265,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -4265,7 +4279,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -4279,7 +4293,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -4293,7 +4307,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -4307,7 +4321,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -4321,7 +4335,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -4335,7 +4349,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -4349,7 +4363,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -4363,7 +4377,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -4377,7 +4391,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -4391,7 +4405,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -4405,7 +4419,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -4419,7 +4433,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -4433,7 +4447,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -4447,7 +4461,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -4461,7 +4475,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -4475,7 +4489,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -4489,7 +4503,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -4503,7 +4517,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -4517,7 +4531,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -4531,7 +4545,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -4545,7 +4559,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -4559,7 +4573,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -4573,7 +4587,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -4587,7 +4601,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>312</v>
       </c>
@@ -4601,7 +4615,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>314</v>
       </c>
@@ -4615,7 +4629,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -4629,7 +4643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>318</v>
       </c>
@@ -4643,7 +4657,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -4657,7 +4671,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -4671,7 +4685,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -4685,7 +4699,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>326</v>
       </c>
@@ -4699,7 +4713,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>328</v>
       </c>
@@ -4713,7 +4727,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>330</v>
       </c>
@@ -4727,7 +4741,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -4741,7 +4755,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -4755,7 +4769,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -4769,7 +4783,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -4783,7 +4797,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -4797,7 +4811,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -4811,7 +4825,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>344</v>
       </c>
@@ -4825,7 +4839,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>346</v>
       </c>
@@ -4839,7 +4853,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -4853,7 +4867,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -4867,7 +4881,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -4881,7 +4895,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -4895,7 +4909,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -4909,7 +4923,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -4923,7 +4937,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>360</v>
       </c>
@@ -4937,7 +4951,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>362</v>
       </c>
@@ -4951,7 +4965,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -4965,7 +4979,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -4979,7 +4993,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>368</v>
       </c>
@@ -4993,7 +5007,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -5007,7 +5021,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -5021,7 +5035,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>374</v>
       </c>
@@ -5035,7 +5049,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -5049,7 +5063,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -5063,7 +5077,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -5077,7 +5091,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -5091,7 +5105,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -5105,7 +5119,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -5119,7 +5133,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -5133,7 +5147,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -5147,7 +5161,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -5161,7 +5175,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -5175,7 +5189,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -5189,7 +5203,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -5203,7 +5217,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -5217,7 +5231,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -5231,7 +5245,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -5245,7 +5259,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -5259,7 +5273,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -5273,7 +5287,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -5287,7 +5301,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -5301,7 +5315,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -5315,7 +5329,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -5329,7 +5343,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -5343,7 +5357,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -5357,7 +5371,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -5371,7 +5385,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -5385,7 +5399,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -5399,7 +5413,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -5413,7 +5427,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -5427,7 +5441,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -5441,7 +5455,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -5455,7 +5469,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -5469,7 +5483,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -5483,7 +5497,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -5497,7 +5511,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -5511,7 +5525,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>444</v>
       </c>
@@ -5525,7 +5539,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>446</v>
       </c>
@@ -5539,7 +5553,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>448</v>
       </c>
@@ -5553,7 +5567,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>450</v>
       </c>
@@ -5567,7 +5581,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -5581,7 +5595,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>454</v>
       </c>
@@ -5595,7 +5609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>456</v>
       </c>
@@ -5609,7 +5623,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>458</v>
       </c>
@@ -5623,7 +5637,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>460</v>
       </c>
@@ -5637,7 +5651,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -5651,7 +5665,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -5665,7 +5679,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>466</v>
       </c>
@@ -5679,7 +5693,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>468</v>
       </c>
@@ -5693,7 +5707,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -5707,7 +5721,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>472</v>
       </c>
@@ -5721,7 +5735,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>474</v>
       </c>
@@ -5735,7 +5749,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>476</v>
       </c>
@@ -5749,7 +5763,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>478</v>
       </c>
@@ -5763,7 +5777,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>480</v>
       </c>
@@ -5777,7 +5791,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -5791,7 +5805,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -5805,7 +5819,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>486</v>
       </c>
@@ -5819,7 +5833,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -5833,7 +5847,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -5847,7 +5861,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -5861,7 +5875,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -5875,7 +5889,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>496</v>
       </c>
@@ -5889,7 +5903,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>498</v>
       </c>
@@ -5903,7 +5917,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>500</v>
       </c>
@@ -5917,7 +5931,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -5931,7 +5945,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -5945,7 +5959,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>506</v>
       </c>
@@ -5959,7 +5973,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>508</v>
       </c>
@@ -5973,7 +5987,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>510</v>
       </c>
@@ -5987,7 +6001,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>512</v>
       </c>
@@ -6001,7 +6015,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>514</v>
       </c>
@@ -6015,7 +6029,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>516</v>
       </c>
@@ -6029,7 +6043,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>518</v>
       </c>
@@ -6043,7 +6057,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>520</v>
       </c>
@@ -6057,7 +6071,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>522</v>
       </c>
@@ -6071,7 +6085,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>524</v>
       </c>
@@ -6085,7 +6099,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>526</v>
       </c>
@@ -6099,7 +6113,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>528</v>
       </c>
@@ -6113,7 +6127,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>530</v>
       </c>
@@ -6127,7 +6141,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>532</v>
       </c>
@@ -6141,7 +6155,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>534</v>
       </c>
@@ -6155,7 +6169,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>536</v>
       </c>
@@ -6169,7 +6183,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>538</v>
       </c>
@@ -6183,7 +6197,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>540</v>
       </c>
@@ -6197,7 +6211,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>542</v>
       </c>
@@ -6211,7 +6225,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>544</v>
       </c>
@@ -6225,7 +6239,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>546</v>
       </c>
@@ -6239,7 +6253,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>548</v>
       </c>
@@ -6253,7 +6267,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>550</v>
       </c>
@@ -6267,7 +6281,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>552</v>
       </c>
@@ -6281,7 +6295,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>554</v>
       </c>
@@ -6295,7 +6309,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>556</v>
       </c>
@@ -6309,7 +6323,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>558</v>
       </c>
@@ -6323,7 +6337,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>560</v>
       </c>
@@ -6337,7 +6351,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>562</v>
       </c>
@@ -6351,7 +6365,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>564</v>
       </c>
@@ -6365,7 +6379,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>566</v>
       </c>
@@ -6379,7 +6393,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -6393,7 +6407,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>570</v>
       </c>
@@ -6407,7 +6421,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>572</v>
       </c>
@@ -6421,7 +6435,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>574</v>
       </c>
@@ -6435,7 +6449,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>576</v>
       </c>
@@ -6449,7 +6463,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>578</v>
       </c>
@@ -6463,7 +6477,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>580</v>
       </c>
@@ -6477,7 +6491,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -6491,7 +6505,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -6505,7 +6519,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -6519,7 +6533,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>588</v>
       </c>
@@ -6533,7 +6547,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>590</v>
       </c>
@@ -6547,7 +6561,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>592</v>
       </c>
@@ -6561,7 +6575,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>594</v>
       </c>
@@ -6575,7 +6589,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>596</v>
       </c>
@@ -6589,7 +6603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>598</v>
       </c>
@@ -6603,7 +6617,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>600</v>
       </c>
@@ -6617,7 +6631,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -6631,7 +6645,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>604</v>
       </c>
@@ -6645,7 +6659,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>606</v>
       </c>
@@ -6659,7 +6673,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>608</v>
       </c>
@@ -6673,7 +6687,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>610</v>
       </c>
@@ -6687,7 +6701,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>612</v>
       </c>
@@ -6701,7 +6715,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -6715,7 +6729,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -6729,7 +6743,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>618</v>
       </c>
@@ -6743,7 +6757,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>620</v>
       </c>
@@ -6757,7 +6771,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>622</v>
       </c>
@@ -6771,7 +6785,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>624</v>
       </c>
@@ -6785,7 +6799,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>626</v>
       </c>
@@ -6799,7 +6813,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>628</v>
       </c>
@@ -6813,7 +6827,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>630</v>
       </c>
@@ -6827,7 +6841,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>632</v>
       </c>
@@ -6841,7 +6855,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>634</v>
       </c>
@@ -6855,7 +6869,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>636</v>
       </c>
@@ -6869,7 +6883,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>638</v>
       </c>
@@ -6883,7 +6897,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>640</v>
       </c>
@@ -6897,7 +6911,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>642</v>
       </c>
@@ -6911,7 +6925,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>644</v>
       </c>
@@ -6925,7 +6939,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>646</v>
       </c>
@@ -6939,7 +6953,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>648</v>
       </c>
@@ -6953,7 +6967,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>650</v>
       </c>
@@ -6967,7 +6981,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>652</v>
       </c>
@@ -6981,7 +6995,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>654</v>
       </c>
@@ -6995,7 +7009,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>656</v>
       </c>
@@ -7009,7 +7023,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331">
         <v>11111</v>
       </c>
@@ -7022,6 +7036,36 @@
       <c r="D331">
         <v>500</v>
       </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A332" s="2">
+        <v>1</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D332" s="2">
+        <v>499</v>
+      </c>
+      <c r="E332" s="2"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333" s="2">
+        <v>10803201</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D333" s="2">
+        <v>464</v>
+      </c>
+      <c r="E333" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stockfish_last/warehouse_data_sample.xlsx
+++ b/stockfish_last/warehouse_data_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozom\Desktop\stockfish_last_git\stockfish_last\stockfish_last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3CA997-C816-4E53-9190-C479E0BBA311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242B38F0-914D-4F00-B6D5-6C1B0955EBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="666">
   <si>
     <t>15203102</t>
   </si>
@@ -2016,23 +2016,42 @@
     <t>piece</t>
   </si>
   <si>
-    <t>omer</t>
-  </si>
-  <si>
-    <t>omeer</t>
+    <t>product 1</t>
+  </si>
+  <si>
+    <t>product 2</t>
+  </si>
+  <si>
+    <t>product 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;#,##\-0;\-;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA2120F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2044,7 +2063,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2067,21 +2086,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2391,7 +2443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E333"/>
+  <dimension ref="A1:E334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
       <selection activeCell="B334" sqref="B334"/>
@@ -7025,49 +7077,60 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331">
-        <v>11111</v>
+        <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C331" t="s">
         <v>662</v>
       </c>
       <c r="D331">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>662</v>
       </c>
       <c r="D332" s="2">
-        <v>499</v>
+        <v>2000</v>
       </c>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="2">
-        <v>10803201</v>
+        <v>3</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>662</v>
       </c>
       <c r="D333" s="2">
-        <v>464</v>
+        <v>3000</v>
       </c>
       <c r="E333" s="2"/>
     </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A334" s="3"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="5"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A334:D334">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A334))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stockfish_last/warehouse_data_sample.xlsx
+++ b/stockfish_last/warehouse_data_sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozom\Desktop\stockfish_last_git\stockfish_last\stockfish_last\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\OneDrive\Masaüstü\Stockfish_Last\stockfish_v1.0.9\stockfish_last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242B38F0-914D-4F00-B6D5-6C1B0955EBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="666">
   <si>
     <t>15203102</t>
   </si>
@@ -2028,30 +2027,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0;#,##\-0;\-;@"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFA2120F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2063,7 +2046,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2086,54 +2069,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2442,20 +2392,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E334"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="B334" sqref="B334"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>658</v>
       </c>
@@ -2469,7 +2419,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2483,7 +2433,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2497,7 +2447,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +2461,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2525,7 +2475,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2539,7 +2489,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2553,7 +2503,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2567,7 +2517,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2581,7 +2531,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2595,7 +2545,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2609,7 +2559,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2623,7 +2573,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2637,7 +2587,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2651,7 +2601,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2665,7 +2615,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2679,7 +2629,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2693,7 +2643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2707,7 +2657,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2721,7 +2671,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2735,7 +2685,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2749,7 +2699,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2763,7 +2713,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2777,7 +2727,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2791,7 +2741,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2805,7 +2755,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2819,7 +2769,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2833,7 +2783,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2847,7 +2797,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -2861,7 +2811,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2875,7 +2825,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2889,7 +2839,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2903,7 +2853,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2917,7 +2867,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2931,7 +2881,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -2945,7 +2895,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -2959,7 +2909,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -2973,7 +2923,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2987,7 +2937,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -3001,7 +2951,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -3015,7 +2965,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -3029,7 +2979,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -3043,7 +2993,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3057,7 +3007,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3071,7 +3021,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3085,7 +3035,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3099,7 +3049,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3113,7 +3063,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3127,7 +3077,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -3141,7 +3091,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -3155,7 +3105,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -3169,7 +3119,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -3183,7 +3133,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -3197,7 +3147,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -3211,7 +3161,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3225,7 +3175,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3239,7 +3189,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3253,7 +3203,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -3267,7 +3217,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -3281,7 +3231,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -3295,7 +3245,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -3309,7 +3259,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -3323,7 +3273,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -3337,7 +3287,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -3351,7 +3301,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -3365,7 +3315,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -3379,7 +3329,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -3393,7 +3343,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -3407,7 +3357,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -3421,7 +3371,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -3435,7 +3385,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -3449,7 +3399,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -3463,7 +3413,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -3477,7 +3427,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -3491,7 +3441,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -3505,7 +3455,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -3519,7 +3469,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -3533,7 +3483,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -3547,7 +3497,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -3561,7 +3511,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -3575,7 +3525,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -3589,7 +3539,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -3603,7 +3553,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -3617,7 +3567,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -3631,7 +3581,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>166</v>
       </c>
@@ -3645,7 +3595,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -3659,7 +3609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -3673,7 +3623,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -3687,7 +3637,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -3701,7 +3651,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -3715,7 +3665,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -3729,7 +3679,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -3743,7 +3693,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -3757,7 +3707,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -3771,7 +3721,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -3785,7 +3735,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -3799,7 +3749,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -3813,7 +3763,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -3827,7 +3777,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -3841,7 +3791,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -3855,7 +3805,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>198</v>
       </c>
@@ -3869,7 +3819,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -3883,7 +3833,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -3897,7 +3847,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -3911,7 +3861,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -3925,7 +3875,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -3939,7 +3889,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -3953,7 +3903,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -3967,7 +3917,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -3981,7 +3931,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -3995,7 +3945,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>218</v>
       </c>
@@ -4009,7 +3959,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -4023,7 +3973,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -4037,7 +3987,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -4051,7 +4001,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>226</v>
       </c>
@@ -4065,7 +4015,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>228</v>
       </c>
@@ -4079,7 +4029,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -4093,7 +4043,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -4107,7 +4057,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>234</v>
       </c>
@@ -4121,7 +4071,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>236</v>
       </c>
@@ -4135,7 +4085,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>238</v>
       </c>
@@ -4149,7 +4099,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -4163,7 +4113,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>242</v>
       </c>
@@ -4177,7 +4127,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>244</v>
       </c>
@@ -4191,7 +4141,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>246</v>
       </c>
@@ -4205,7 +4155,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>248</v>
       </c>
@@ -4219,7 +4169,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -4233,7 +4183,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -4247,7 +4197,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -4261,7 +4211,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -4275,7 +4225,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -4289,7 +4239,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -4303,7 +4253,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -4317,7 +4267,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -4331,7 +4281,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -4345,7 +4295,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -4359,7 +4309,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -4373,7 +4323,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -4387,7 +4337,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -4401,7 +4351,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -4415,7 +4365,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -4429,7 +4379,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -4443,7 +4393,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -4457,7 +4407,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -4471,7 +4421,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -4485,7 +4435,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -4499,7 +4449,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -4513,7 +4463,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -4527,7 +4477,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -4541,7 +4491,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -4555,7 +4505,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -4569,7 +4519,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -4583,7 +4533,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -4597,7 +4547,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -4611,7 +4561,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -4625,7 +4575,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -4639,7 +4589,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -4653,7 +4603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>312</v>
       </c>
@@ -4667,7 +4617,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>314</v>
       </c>
@@ -4681,7 +4631,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -4695,7 +4645,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>318</v>
       </c>
@@ -4709,7 +4659,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -4723,7 +4673,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -4737,7 +4687,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -4751,7 +4701,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>326</v>
       </c>
@@ -4765,7 +4715,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>328</v>
       </c>
@@ -4779,7 +4729,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>330</v>
       </c>
@@ -4793,7 +4743,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -4807,7 +4757,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -4821,7 +4771,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -4835,7 +4785,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -4849,7 +4799,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -4863,7 +4813,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -4877,7 +4827,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>344</v>
       </c>
@@ -4891,7 +4841,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>346</v>
       </c>
@@ -4905,7 +4855,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -4919,7 +4869,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -4933,7 +4883,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -4947,7 +4897,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -4961,7 +4911,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -4975,7 +4925,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -4989,7 +4939,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>360</v>
       </c>
@@ -5003,7 +4953,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>362</v>
       </c>
@@ -5017,7 +4967,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -5031,7 +4981,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -5045,7 +4995,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>368</v>
       </c>
@@ -5059,7 +5009,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -5073,7 +5023,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -5087,7 +5037,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>374</v>
       </c>
@@ -5101,7 +5051,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -5115,7 +5065,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -5129,7 +5079,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -5143,7 +5093,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -5157,7 +5107,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -5171,7 +5121,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -5185,7 +5135,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -5199,7 +5149,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -5213,7 +5163,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -5227,7 +5177,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -5241,7 +5191,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -5255,7 +5205,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -5269,7 +5219,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -5283,7 +5233,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -5297,7 +5247,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -5311,7 +5261,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -5325,7 +5275,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -5339,7 +5289,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -5353,7 +5303,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -5367,7 +5317,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -5381,7 +5331,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -5395,7 +5345,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -5409,7 +5359,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -5423,7 +5373,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -5437,7 +5387,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -5451,7 +5401,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -5465,7 +5415,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -5479,7 +5429,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -5493,7 +5443,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -5507,7 +5457,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -5521,7 +5471,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -5535,7 +5485,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -5549,7 +5499,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -5563,7 +5513,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -5577,7 +5527,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>444</v>
       </c>
@@ -5591,7 +5541,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>446</v>
       </c>
@@ -5605,7 +5555,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>448</v>
       </c>
@@ -5619,7 +5569,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>450</v>
       </c>
@@ -5633,7 +5583,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -5647,7 +5597,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>454</v>
       </c>
@@ -5661,7 +5611,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>456</v>
       </c>
@@ -5675,7 +5625,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>458</v>
       </c>
@@ -5689,7 +5639,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>460</v>
       </c>
@@ -5703,7 +5653,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -5717,7 +5667,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -5731,7 +5681,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>466</v>
       </c>
@@ -5745,7 +5695,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>468</v>
       </c>
@@ -5759,7 +5709,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -5773,7 +5723,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>472</v>
       </c>
@@ -5787,7 +5737,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>474</v>
       </c>
@@ -5801,7 +5751,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>476</v>
       </c>
@@ -5815,7 +5765,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>478</v>
       </c>
@@ -5829,7 +5779,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>480</v>
       </c>
@@ -5843,7 +5793,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -5857,7 +5807,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -5871,7 +5821,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>486</v>
       </c>
@@ -5885,7 +5835,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -5899,7 +5849,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -5913,7 +5863,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -5927,7 +5877,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -5941,7 +5891,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>496</v>
       </c>
@@ -5955,7 +5905,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>498</v>
       </c>
@@ -5969,7 +5919,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>500</v>
       </c>
@@ -5983,7 +5933,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -5997,7 +5947,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -6011,7 +5961,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>506</v>
       </c>
@@ -6025,7 +5975,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>508</v>
       </c>
@@ -6039,7 +5989,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>510</v>
       </c>
@@ -6053,7 +6003,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>512</v>
       </c>
@@ -6067,7 +6017,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>514</v>
       </c>
@@ -6081,7 +6031,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>516</v>
       </c>
@@ -6095,7 +6045,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>518</v>
       </c>
@@ -6109,7 +6059,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>520</v>
       </c>
@@ -6123,7 +6073,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>522</v>
       </c>
@@ -6137,7 +6087,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>524</v>
       </c>
@@ -6151,7 +6101,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>526</v>
       </c>
@@ -6165,7 +6115,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>528</v>
       </c>
@@ -6179,7 +6129,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>530</v>
       </c>
@@ -6193,7 +6143,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>532</v>
       </c>
@@ -6207,7 +6157,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>534</v>
       </c>
@@ -6221,7 +6171,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>536</v>
       </c>
@@ -6235,7 +6185,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>538</v>
       </c>
@@ -6249,7 +6199,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>540</v>
       </c>
@@ -6263,7 +6213,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>542</v>
       </c>
@@ -6277,7 +6227,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>544</v>
       </c>
@@ -6291,7 +6241,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>546</v>
       </c>
@@ -6305,7 +6255,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>548</v>
       </c>
@@ -6319,7 +6269,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>550</v>
       </c>
@@ -6333,7 +6283,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>552</v>
       </c>
@@ -6347,7 +6297,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>554</v>
       </c>
@@ -6361,7 +6311,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>556</v>
       </c>
@@ -6375,7 +6325,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>558</v>
       </c>
@@ -6389,7 +6339,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>560</v>
       </c>
@@ -6403,7 +6353,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>562</v>
       </c>
@@ -6417,7 +6367,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>564</v>
       </c>
@@ -6431,7 +6381,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>566</v>
       </c>
@@ -6445,7 +6395,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -6459,7 +6409,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>570</v>
       </c>
@@ -6473,7 +6423,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>572</v>
       </c>
@@ -6487,7 +6437,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>574</v>
       </c>
@@ -6501,7 +6451,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>576</v>
       </c>
@@ -6515,7 +6465,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>578</v>
       </c>
@@ -6529,7 +6479,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>580</v>
       </c>
@@ -6543,7 +6493,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -6557,7 +6507,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -6571,7 +6521,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -6585,7 +6535,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>588</v>
       </c>
@@ -6599,7 +6549,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>590</v>
       </c>
@@ -6613,7 +6563,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>592</v>
       </c>
@@ -6627,7 +6577,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>594</v>
       </c>
@@ -6641,7 +6591,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>596</v>
       </c>
@@ -6655,7 +6605,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>598</v>
       </c>
@@ -6669,7 +6619,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>600</v>
       </c>
@@ -6683,7 +6633,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -6697,7 +6647,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>604</v>
       </c>
@@ -6711,7 +6661,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>606</v>
       </c>
@@ -6725,7 +6675,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>608</v>
       </c>
@@ -6739,7 +6689,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>610</v>
       </c>
@@ -6753,7 +6703,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>612</v>
       </c>
@@ -6767,7 +6717,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -6781,7 +6731,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -6795,7 +6745,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>618</v>
       </c>
@@ -6809,7 +6759,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>620</v>
       </c>
@@ -6823,7 +6773,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>622</v>
       </c>
@@ -6837,7 +6787,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>624</v>
       </c>
@@ -6851,7 +6801,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>626</v>
       </c>
@@ -6865,7 +6815,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>628</v>
       </c>
@@ -6879,7 +6829,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>630</v>
       </c>
@@ -6893,7 +6843,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>632</v>
       </c>
@@ -6907,7 +6857,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>634</v>
       </c>
@@ -6921,7 +6871,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>636</v>
       </c>
@@ -6935,7 +6885,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>638</v>
       </c>
@@ -6949,7 +6899,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>640</v>
       </c>
@@ -6963,7 +6913,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>642</v>
       </c>
@@ -6977,7 +6927,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>644</v>
       </c>
@@ -6991,7 +6941,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>646</v>
       </c>
@@ -7005,7 +6955,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>648</v>
       </c>
@@ -7019,7 +6969,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>650</v>
       </c>
@@ -7033,7 +6983,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>652</v>
       </c>
@@ -7047,7 +6997,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>654</v>
       </c>
@@ -7061,7 +7011,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>656</v>
       </c>
@@ -7075,7 +7025,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1</v>
       </c>
@@ -7089,7 +7039,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>2</v>
       </c>
@@ -7104,7 +7054,7 @@
       </c>
       <c r="E332" s="2"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>3</v>
       </c>
@@ -7119,18 +7069,49 @@
       </c>
       <c r="E333" s="2"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A334" s="3"/>
-      <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
-      <c r="D334" s="5"/>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>5</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D334" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>6</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D335" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>7</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D336" s="2">
+        <v>3000</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A334:D334">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A334))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>